--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.030521.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.030521.xlsx_with_dialog_acts.xlsx
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1857,12 +1857,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1941,12 +1941,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3201,12 +3201,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3323,12 +3323,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3449,12 +3449,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4331,12 +4331,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4747,12 +4747,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5209,12 +5209,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5457,12 +5457,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5647,12 +5647,12 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6734,12 +6734,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7368,12 +7368,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7520,12 +7520,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8055,12 +8055,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8475,12 +8475,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8517,12 +8517,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8846,12 +8846,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8888,12 +8888,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9140,12 +9140,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9495,12 +9495,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9656,12 +9656,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11256,12 +11256,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11674,12 +11674,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11758,12 +11758,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11884,12 +11884,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12388,12 +12388,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13061,12 +13061,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13817,12 +13817,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14150,12 +14150,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14314,12 +14314,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14650,12 +14650,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14692,12 +14692,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15033,12 +15033,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15075,12 +15075,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15705,12 +15705,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15957,12 +15957,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16251,12 +16251,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16587,12 +16587,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17049,12 +17049,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17091,12 +17091,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17133,12 +17133,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17175,12 +17175,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17217,12 +17217,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17427,12 +17427,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17469,12 +17469,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17595,12 +17595,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17679,12 +17679,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17847,12 +17847,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17889,12 +17889,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18267,12 +18267,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18435,12 +18435,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18519,12 +18519,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18687,12 +18687,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18729,12 +18729,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19149,12 +19149,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19695,12 +19695,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20066,12 +20066,12 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20937,12 +20937,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21987,12 +21987,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22071,12 +22071,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22403,12 +22403,12 @@
       <c r="H529" t="inlineStr"/>
       <c r="I529" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22571,12 +22571,12 @@
       <c r="H533" t="inlineStr"/>
       <c r="I533" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22697,12 +22697,12 @@
       <c r="H536" t="inlineStr"/>
       <c r="I536" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23159,12 +23159,12 @@
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23537,12 +23537,12 @@
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23660,12 +23660,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24328,12 +24328,12 @@
       <c r="H575" t="inlineStr"/>
       <c r="I575" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24454,12 +24454,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24538,12 +24538,12 @@
       <c r="H580" t="inlineStr"/>
       <c r="I580" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24790,12 +24790,12 @@
       <c r="H586" t="inlineStr"/>
       <c r="I586" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24874,12 +24874,12 @@
       <c r="H588" t="inlineStr"/>
       <c r="I588" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25131,12 +25131,12 @@
       <c r="H594" t="inlineStr"/>
       <c r="I594" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25971,12 +25971,12 @@
       <c r="H614" t="inlineStr"/>
       <c r="I614" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26013,12 +26013,12 @@
       <c r="H615" t="inlineStr"/>
       <c r="I615" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26349,12 +26349,12 @@
       <c r="H623" t="inlineStr"/>
       <c r="I623" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26643,12 +26643,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26685,12 +26685,12 @@
       <c r="H631" t="inlineStr"/>
       <c r="I631" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27900,12 +27900,12 @@
       <c r="H660" t="inlineStr"/>
       <c r="I660" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28317,12 +28317,12 @@
       <c r="H670" t="inlineStr"/>
       <c r="I670" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28359,12 +28359,12 @@
       <c r="H671" t="inlineStr"/>
       <c r="I671" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28401,12 +28401,12 @@
       <c r="H672" t="inlineStr"/>
       <c r="I672" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28688,12 +28688,12 @@
       <c r="H679" t="inlineStr"/>
       <c r="I679" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29104,12 +29104,12 @@
       <c r="H689" t="inlineStr"/>
       <c r="I689" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29314,12 +29314,12 @@
       <c r="H694" t="inlineStr"/>
       <c r="I694" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29524,12 +29524,12 @@
       <c r="H699" t="inlineStr"/>
       <c r="I699" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29608,12 +29608,12 @@
       <c r="H701" t="inlineStr"/>
       <c r="I701" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30868,12 +30868,12 @@
       <c r="H731" t="inlineStr"/>
       <c r="I731" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31120,12 +31120,12 @@
       <c r="H737" t="inlineStr"/>
       <c r="I737" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31456,12 +31456,12 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31498,12 +31498,12 @@
       <c r="H746" t="inlineStr"/>
       <c r="I746" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31750,12 +31750,12 @@
       <c r="H752" t="inlineStr"/>
       <c r="I752" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31834,12 +31834,12 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32465,12 +32465,12 @@
       <c r="H769" t="inlineStr"/>
       <c r="I769" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32633,12 +32633,12 @@
       <c r="H773" t="inlineStr"/>
       <c r="I773" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33805,12 +33805,12 @@
       <c r="H801" t="inlineStr"/>
       <c r="I801" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J801" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34057,12 +34057,12 @@
       <c r="H807" t="inlineStr"/>
       <c r="I807" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J807" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
